--- a/docs/Analysis_data.xlsx
+++ b/docs/Analysis_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17715" tabRatio="500"/>
+    <workbookView windowWidth="32370" windowHeight="17715" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Exact Solution</t>
   </si>
@@ -121,15 +121,24 @@
   <si>
     <t>ln delta Tc</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ln(Size)</t>
+  </si>
+  <si>
+    <t>ln(time)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -140,13 +149,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,10 +165,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +188,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -190,9 +201,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,14 +225,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,37 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,33 +290,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,31 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +326,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,25 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,55 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +446,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,47 +536,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -590,6 +558,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -601,138 +610,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,7 +830,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -832,11 +868,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ln(Delta M) v.s. ln(L)"</c:f>
+              <c:f>"ln(Delta M)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ln(Delta M) v.s. ln(L)</c:v>
+                  <c:v>ln(Delta M)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -890,6 +926,45 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$I$14:$I$32</c:f>
@@ -1042,33 +1117,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1404,7 +1452,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1820,7 +1868,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>delta T_c v.s. ln(Lattice Length)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1829,6 +1912,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"delta T_c"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta T_c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2106,34 +2200,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2154,7 +2220,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>ln (Lattice Length)</a:t>
+                  <a:t>ln(Lattice Length)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2264,7 +2330,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>delta Tc</a:t>
+                  <a:t>delta T_c</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2316,6 +2382,555 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="758730961"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>ln(time) v.s. ln(lattice length)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"""ln(time)"""</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"ln(time)"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$79:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.693147180559945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09861228866811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38629436111989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6094379124341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79175946922805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.94591014905531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.07944154167984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.19722457733622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.30258509299405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.39789527279837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.484906649788</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.56494935746154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.63905732961526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.70805020110221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.77258872223978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.83321334405622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.89037175789616</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.94443897916644</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.99573227355399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$79:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.198450938723838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.576613364303994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.18784342239605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5953389880546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.94591014905531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.24283508858827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.49072303510944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.72063731660768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.98669152890184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.20801708153332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3724549127965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.53631085546933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.67908161163383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.79974976294536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.89426628383889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.05404326544858</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.12455040427917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2358441244958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.34055338646731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40976759"/>
+        <c:axId val="927887427"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="40976759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>ln(lattice length)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927887427"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="927887427"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>ln(time)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40976759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2514,6 +3129,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -4025,20 +4680,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4046,8 +5217,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12461240" y="3327400"/>
-        <a:ext cx="9306560" cy="5753735"/>
+        <a:off x="12089130" y="2821305"/>
+        <a:ext cx="9306560" cy="6287135"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4059,16 +5230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4076,8 +5247,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14509115" y="9766300"/>
-        <a:ext cx="7456805" cy="5180330"/>
+        <a:off x="11343640" y="10780395"/>
+        <a:ext cx="7456805" cy="5656580"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4090,15 +5261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>541655</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>879475</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:colOff>922655</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4106,12 +5277,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1184275" y="8458200"/>
-        <a:ext cx="9362440" cy="5761990"/>
+        <a:off x="1227455" y="8415020"/>
+        <a:ext cx="9981565" cy="6276340"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6140450" y="17098645"/>
+        <a:ext cx="8701405" cy="5050790"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4378,15 +5579,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Z83" sqref="Z83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="9.25"/>
+    <col min="4" max="4" width="12.625"/>
+    <col min="5" max="5" width="13.75"/>
     <col min="11" max="11" width="9.36666666666667" customWidth="1"/>
     <col min="12" max="12" width="9.25"/>
     <col min="15" max="15" width="13.75"/>
@@ -5455,6 +6657,324 @@
         <v>-5.33837576685213</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>0.82</v>
+      </c>
+      <c r="D79">
+        <f>LN(A79)</f>
+        <v>0.693147180559945</v>
+      </c>
+      <c r="E79">
+        <f>LN(B79)</f>
+        <v>-0.198450938723838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>1.78</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D97" si="5">LN(A80)</f>
+        <v>1.09861228866811</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:E97" si="6">LN(B80)</f>
+        <v>0.576613364303994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>3.28</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>1.38629436111989</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>1.18784342239605</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>4.93</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>1.6094379124341</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>1.5953389880546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>1.79175946922805</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>1.94591014905531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>9.42</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>1.94591014905531</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>2.24283508858827</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>12.07</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>2.07944154167984</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>2.49072303510944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>15.19</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>2.19722457733622</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>2.72063731660768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>19.82</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>2.30258509299405</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>2.98669152890184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>24.73</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>2.39789527279837</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>3.20801708153332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>29.15</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>2.484906649788</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>3.3724549127965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>34.34</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>2.56494935746154</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>3.53631085546933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>39.61</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>2.63905732961526</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>3.67908161163383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>44.69</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>2.70805020110221</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>3.79974976294536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>49.12</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>2.77258872223978</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>3.89426628383889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>57.63</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>2.83321334405622</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>4.05404326544858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>61.84</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>2.89037175789616</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>4.12455040427917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96">
+        <v>69.12</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>2.94443897916644</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>4.2358441244958</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97">
+        <v>76.75</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>2.99573227355399</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>4.34055338646731</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/Analysis_data.xlsx
+++ b/docs/Analysis_data.xlsx
@@ -136,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -157,19 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,33 +174,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,72 +187,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +207,103 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,7 +314,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,25 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,19 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,61 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,35 +508,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,32 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,142 +590,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -5200,16 +5200,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>226060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5217,7 +5217,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12089130" y="2821305"/>
+        <a:off x="15336520" y="3540125"/>
         <a:ext cx="9306560" cy="6287135"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5230,16 +5230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>608330</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>614045</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5247,7 +5247,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11343640" y="10780395"/>
+        <a:off x="16835755" y="11565890"/>
         <a:ext cx="7456805" cy="5656580"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5581,8 +5581,8 @@
   <sheetPr/>
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Z83" sqref="Z83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
